--- a/Playtesting feedback/Feedback Compilation.xlsx
+++ b/Playtesting feedback/Feedback Compilation.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willoughby\Desktop\homework\Uni\ThirdYear\GroupProject\Feedback Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Games\Desktop\stack\underscore_games_final_year\Playtesting feedback\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50207AFF-59F3-40B3-8840-B9D8043022F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10515" yWindow="855" windowWidth="21600" windowHeight="11385" xr2:uid="{A590B240-026F-4983-85F4-8AD2FA1B8EB0}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Issues and Suggestions" sheetId="1" r:id="rId1"/>
     <sheet name="Likes" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Encorages Replaying</t>
   </si>
@@ -95,12 +94,54 @@
   </si>
   <si>
     <t>Needs more Weapon/Ability Variation</t>
+  </si>
+  <si>
+    <t>Likes Art Style</t>
+  </si>
+  <si>
+    <t>Enemies are unfun</t>
+  </si>
+  <si>
+    <t>Boss is Too easy</t>
+  </si>
+  <si>
+    <t>Character is too weak</t>
+  </si>
+  <si>
+    <t>Tamable Slimes</t>
+  </si>
+  <si>
+    <t>Charge Indication Needed</t>
+  </si>
+  <si>
+    <t>More information Feedback</t>
+  </si>
+  <si>
+    <t>Needs Visual Feedback</t>
+  </si>
+  <si>
+    <t>Too many dead ends</t>
+  </si>
+  <si>
+    <t>Main Character</t>
+  </si>
+  <si>
+    <t>Wants more character variety</t>
+  </si>
+  <si>
+    <t>Needs things to look for</t>
+  </si>
+  <si>
+    <t>Needs a narative/goals</t>
+  </si>
+  <si>
+    <t>Adding new room encounters for the games</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,15 +151,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,13 +200,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,43 +535,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE33BC0-6E4E-4C88-8801-6E7110913402}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -505,15 +580,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -521,23 +599,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -545,32 +623,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B12">
+  <conditionalFormatting sqref="B1:B22">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -597,7 +755,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B12</xm:sqref>
+          <xm:sqref>B1:B22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -606,11 +764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C92396-6D92-4FB1-8ED2-C04FC8193CD1}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,8 +848,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B9">
+  <conditionalFormatting sqref="B1:B12">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -718,7 +900,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B9</xm:sqref>
+          <xm:sqref>B1:B12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Playtesting feedback/Feedback Compilation.xlsx
+++ b/Playtesting feedback/Feedback Compilation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Games\Desktop\stack\underscore_games_final_year\Playtesting feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willoughby\Desktop\homework\Uni\ThirdYear\GroupProject\Feedback Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3197ABF0-5171-4B49-9D35-55491CA8E4CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12885" activeTab="1"/>
+    <workbookView xWindow="-7425" yWindow="4965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues and Suggestions" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Encorages Replaying</t>
   </si>
@@ -136,12 +131,30 @@
   </si>
   <si>
     <t>Adding new room encounters for the games</t>
+  </si>
+  <si>
+    <t>Combat was dull</t>
+  </si>
+  <si>
+    <t>Entire Game Was Dull</t>
+  </si>
+  <si>
+    <t>Dislikes Player Character</t>
+  </si>
+  <si>
+    <t>Dislikes Controls</t>
+  </si>
+  <si>
+    <t>Feels Generic</t>
+  </si>
+  <si>
+    <t>Lacks Enemy Variety</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,7 +665,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +705,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,8 +740,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B22">
+  <conditionalFormatting sqref="B1:B28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -755,7 +816,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B22</xm:sqref>
+          <xm:sqref>B1:B28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -764,11 +825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +837,7 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -792,15 +853,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,15 +872,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -824,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -832,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -840,15 +904,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -856,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -864,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
